--- a/results_v1/res_load/p_mw.xlsx
+++ b/results_v1/res_load/p_mw.xlsx
@@ -391,16 +391,16 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>38.48825575548253</v>
+        <v>40.83326269737724</v>
       </c>
       <c r="C2">
-        <v>35.40418836542443</v>
+        <v>40.98319144789082</v>
       </c>
       <c r="D2">
-        <v>32.6294805589497</v>
+        <v>41.832786326281</v>
       </c>
       <c r="E2">
-        <v>76.34695124937181</v>
+        <v>95.23498993140709</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -408,16 +408,16 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>36.61603144290913</v>
+        <v>36.65500741226202</v>
       </c>
       <c r="C3">
-        <v>37.0829591209534</v>
+        <v>37.81363905944266</v>
       </c>
       <c r="D3">
-        <v>33.10992483584088</v>
+        <v>33.76505716912469</v>
       </c>
       <c r="E3">
-        <v>78.39184877107849</v>
+        <v>78.83383568670027</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -425,16 +425,16 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>32.18257109516509</v>
+        <v>33.76033537487606</v>
       </c>
       <c r="C4">
-        <v>32.70636956133386</v>
+        <v>34.06641598988212</v>
       </c>
       <c r="D4">
-        <v>29.75536141428839</v>
+        <v>29.59068203342625</v>
       </c>
       <c r="E4">
-        <v>68.32947150551249</v>
+        <v>64.70693370748816</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -442,16 +442,16 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>34.2992742252334</v>
+        <v>37.08879772507061</v>
       </c>
       <c r="C5">
-        <v>35.26731142701519</v>
+        <v>34.42752367011119</v>
       </c>
       <c r="D5">
-        <v>32.73554264741297</v>
+        <v>33.607751549749</v>
       </c>
       <c r="E5">
-        <v>72.37877481455114</v>
+        <v>84.73107304179482</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -459,16 +459,16 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>38.12772861414921</v>
+        <v>31.56890440264874</v>
       </c>
       <c r="C6">
-        <v>39.06614566316815</v>
+        <v>29.81958113364524</v>
       </c>
       <c r="D6">
-        <v>37.76337921338071</v>
+        <v>30.05841826064214</v>
       </c>
       <c r="E6">
-        <v>95.73454594737089</v>
+        <v>66.2333567041475</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -476,16 +476,16 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>34.59602686557773</v>
+        <v>38.10007353711691</v>
       </c>
       <c r="C7">
-        <v>34.30778558851326</v>
+        <v>38.24166967338103</v>
       </c>
       <c r="D7">
-        <v>33.17588579311705</v>
+        <v>40.01435163584914</v>
       </c>
       <c r="E7">
-        <v>70.23689163346359</v>
+        <v>91.6746951991407</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -493,16 +493,16 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>41.88448540792952</v>
+        <v>44.26378431808916</v>
       </c>
       <c r="C8">
-        <v>41.00178588010672</v>
+        <v>39.66187744496234</v>
       </c>
       <c r="D8">
-        <v>38.35312883402995</v>
+        <v>35.5866488244923</v>
       </c>
       <c r="E8">
-        <v>95.85406509534751</v>
+        <v>74.43261699958249</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -510,16 +510,16 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>51.7453592965585</v>
+        <v>51.27162293208468</v>
       </c>
       <c r="C9">
-        <v>47.25128536264924</v>
+        <v>52.92901524221593</v>
       </c>
       <c r="D9">
-        <v>42.77779231604183</v>
+        <v>54.7301735647408</v>
       </c>
       <c r="E9">
-        <v>102.9647823398111</v>
+        <v>124.1782950156539</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -527,16 +527,16 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>51.71670720803154</v>
+        <v>47.8331959102339</v>
       </c>
       <c r="C10">
-        <v>48.02910876388416</v>
+        <v>41.63159558081183</v>
       </c>
       <c r="D10">
-        <v>45.74369400737952</v>
+        <v>38.20190977736989</v>
       </c>
       <c r="E10">
-        <v>107.1825251858962</v>
+        <v>93.52267786134867</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -544,16 +544,16 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>55.38665773611328</v>
+        <v>46.96495011367779</v>
       </c>
       <c r="C11">
-        <v>49.57860395513068</v>
+        <v>44.95811919029204</v>
       </c>
       <c r="D11">
-        <v>43.11430941814584</v>
+        <v>41.00342338163995</v>
       </c>
       <c r="E11">
-        <v>99.15132877504197</v>
+        <v>89.85948024870423</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -561,16 +561,16 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>54.57930092278777</v>
+        <v>48.69640519108456</v>
       </c>
       <c r="C12">
-        <v>57.13886189403571</v>
+        <v>49.15644681317352</v>
       </c>
       <c r="D12">
-        <v>57.71666108537325</v>
+        <v>50.23135990750846</v>
       </c>
       <c r="E12">
-        <v>142.3145964064165</v>
+        <v>117.8017862319507</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -578,16 +578,16 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>45.41562466087812</v>
+        <v>43.76849564867214</v>
       </c>
       <c r="C13">
-        <v>47.67661902971551</v>
+        <v>44.62028547208274</v>
       </c>
       <c r="D13">
-        <v>49.36912908733552</v>
+        <v>43.54244035170114</v>
       </c>
       <c r="E13">
-        <v>106.6414837093385</v>
+        <v>89.6564397937158</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -595,16 +595,16 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>50.42795542321092</v>
+        <v>45.04012228572522</v>
       </c>
       <c r="C14">
-        <v>46.40367451386619</v>
+        <v>44.76901914763629</v>
       </c>
       <c r="D14">
-        <v>45.88798811689534</v>
+        <v>44.82566530028852</v>
       </c>
       <c r="E14">
-        <v>101.6898580719063</v>
+        <v>113.4904773280769</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -612,16 +612,16 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>46.07431882423123</v>
+        <v>52.01183998289665</v>
       </c>
       <c r="C15">
-        <v>41.88756457763467</v>
+        <v>48.33700549694207</v>
       </c>
       <c r="D15">
-        <v>40.38610388403457</v>
+        <v>44.00841284598422</v>
       </c>
       <c r="E15">
-        <v>85.6060483310327</v>
+        <v>104.6113304521054</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -629,16 +629,16 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>49.65835566802609</v>
+        <v>52.38615769145954</v>
       </c>
       <c r="C16">
-        <v>51.49261769298514</v>
+        <v>45.04107297501492</v>
       </c>
       <c r="D16">
-        <v>45.70603414910607</v>
+        <v>44.43493363646744</v>
       </c>
       <c r="E16">
-        <v>103.1831640992937</v>
+        <v>95.9350597887033</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -646,16 +646,16 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>45.62676516735201</v>
+        <v>45.873255989108</v>
       </c>
       <c r="C17">
-        <v>39.38663027453027</v>
+        <v>47.83551979958052</v>
       </c>
       <c r="D17">
-        <v>36.26771374461942</v>
+        <v>41.31803289164576</v>
       </c>
       <c r="E17">
-        <v>91.2289572936056</v>
+        <v>86.94590059892511</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -663,16 +663,16 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>47.26220826829039</v>
+        <v>50.87004914924405</v>
       </c>
       <c r="C18">
-        <v>41.60360606407922</v>
+        <v>49.685796604356</v>
       </c>
       <c r="D18">
-        <v>38.87252459572142</v>
+        <v>45.35774537819445</v>
       </c>
       <c r="E18">
-        <v>81.20027664390739</v>
+        <v>99.11211303769849</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -680,16 +680,16 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>49.87237365363865</v>
+        <v>53.95035564790116</v>
       </c>
       <c r="C19">
-        <v>48.7938628226247</v>
+        <v>49.37669818714181</v>
       </c>
       <c r="D19">
-        <v>48.591069206457</v>
+        <v>43.77712699457962</v>
       </c>
       <c r="E19">
-        <v>118.1806494743303</v>
+        <v>102.5834622526447</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -697,16 +697,16 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>51.18386746859335</v>
+        <v>50.65093602445429</v>
       </c>
       <c r="C20">
-        <v>46.80248698850443</v>
+        <v>43.42611555707125</v>
       </c>
       <c r="D20">
-        <v>42.05419031513541</v>
+        <v>40.27783221702961</v>
       </c>
       <c r="E20">
-        <v>95.10738695020133</v>
+        <v>98.93744430917332</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -714,16 +714,16 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>54.58468215710867</v>
+        <v>59.43311132138389</v>
       </c>
       <c r="C21">
-        <v>53.89448107960347</v>
+        <v>58.37236086820327</v>
       </c>
       <c r="D21">
-        <v>47.78792502587729</v>
+        <v>55.00715345904305</v>
       </c>
       <c r="E21">
-        <v>99.2702172762057</v>
+        <v>118.0041271966056</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -731,16 +731,16 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>54.87759314222294</v>
+        <v>56.28049618735317</v>
       </c>
       <c r="C22">
-        <v>56.0703621129841</v>
+        <v>53.26840983069034</v>
       </c>
       <c r="D22">
-        <v>51.71646227738171</v>
+        <v>46.20209035178998</v>
       </c>
       <c r="E22">
-        <v>114.8891719281988</v>
+        <v>97.82831033467939</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -748,16 +748,16 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>49.83249796706156</v>
+        <v>51.8300296643275</v>
       </c>
       <c r="C23">
-        <v>43.48634178558299</v>
+        <v>48.82745256167435</v>
       </c>
       <c r="D23">
-        <v>43.20009182342497</v>
+        <v>42.20874188979648</v>
       </c>
       <c r="E23">
-        <v>106.174845255633</v>
+        <v>105.0602416379104</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -765,16 +765,16 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>49.88552768694822</v>
+        <v>53.30708845321073</v>
       </c>
       <c r="C24">
-        <v>48.15550590923572</v>
+        <v>48.33512005751077</v>
       </c>
       <c r="D24">
-        <v>42.25122567025554</v>
+        <v>42.53694926981144</v>
       </c>
       <c r="E24">
-        <v>89.46911419440229</v>
+        <v>100.7025161642255</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -782,16 +782,16 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>40.99204264610193</v>
+        <v>45.12056747811747</v>
       </c>
       <c r="C25">
-        <v>36.4671919659493</v>
+        <v>45.33710909094862</v>
       </c>
       <c r="D25">
-        <v>32.19160558080963</v>
+        <v>44.30988445551396</v>
       </c>
       <c r="E25">
-        <v>79.05790844616422</v>
+        <v>106.965968120998</v>
       </c>
     </row>
   </sheetData>
